--- a/Documentos/Esquema.xlsx
+++ b/Documentos/Esquema.xlsx
@@ -20,12 +20,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t xml:space="preserve">vetor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">índice</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+  <si>
+    <t xml:space="preserve">vetorInicial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice </t>
+  </si>
+  <si>
+    <t xml:space="preserve">maiorValor = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tamanhoDoVetor = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vetorInicial[0] / tamanhoDoBalde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tamanhoDoBalde = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ceil(maiorValor / tamanhoDoVetor) =&gt; 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ceil( 5 / 2 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qtdBaldes = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ceil(maiorValor / tamanhoDoBalde) =&gt; 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VetorInicial[1] / tamanhoDoBalde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ceil( 20 / 2 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vetorFinal </t>
   </si>
 </sst>
 </file>
@@ -35,11 +107,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -57,65 +130,101 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b val="true"/>
+      <sz val="24"/>
       <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial Unicode MS"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
-      <name val="Arial Unicode MS"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
+      <i val="true"/>
       <sz val="10"/>
       <color rgb="FF808080"/>
-      <name val="Arial Unicode MS"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF006600"/>
-      <name val="Arial Unicode MS"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF996600"/>
-      <name val="Arial Unicode MS"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFCC0000"/>
-      <name val="Arial Unicode MS"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial Unicode MS"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,13 +240,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFC9FFCD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCFB8"/>
       </patternFill>
     </fill>
     <fill>
@@ -161,7 +270,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -170,8 +279,50 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9FFCD"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC3C3"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC3DAFF"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0046B7"/>
+        <bgColor rgb="FF003366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCFB8"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -201,6 +352,13 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -226,42 +384,134 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="15" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -305,16 +555,16 @@
       <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFC9FFCD"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF0046B7"/>
+      <rgbColor rgb="FFC3DAFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -324,13 +574,13 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFFC9"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFFFC3C3"/>
       <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCFB8"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -352,139 +602,1346 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>72000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>163440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1437840</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>140040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="0" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="72000" y="163440"/>
+          <a:ext cx="1365840" cy="2375280"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="3495" h="7425">
+              <a:moveTo>
+                <a:pt x="2735" y="6373"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="2610" y="6373"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2486" y="6366"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2362" y="6352"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2239" y="6329"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2117" y="6299"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1996" y="6261"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1877" y="6216"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1760" y="6164"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1645" y="6104"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1533" y="6037"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1424" y="5964"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1317" y="5883"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1215" y="5797"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1115" y="5703"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1020" y="5604"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="929" y="5499"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="842" y="5388"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="760" y="5273"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="682" y="5152"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="610" y="5026"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="543" y="4897"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="481" y="4763"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="424" y="4625"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="373" y="4484"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="328" y="4340"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="289" y="4194"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="256" y="4045"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="229" y="3894"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="208" y="3742"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="193" y="3589"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="184" y="3435"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="182" y="3281"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="186" y="3127"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="196" y="2973"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="212" y="2820"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="235" y="2668"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="264" y="2518"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="298" y="2370"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="339" y="2224"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="385" y="2081"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="438" y="1940"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="495" y="1804"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="559" y="1671"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="627" y="1542"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="701" y="1418"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="780" y="1298"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="863" y="1184"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="951" y="1074"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1043" y="971"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1140" y="873"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1240" y="781"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1344" y="696"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1451" y="617"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1561" y="545"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1674" y="480"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1789" y="422"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1907" y="372"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2026" y="329"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2147" y="293"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2269" y="265"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2393" y="244"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2517" y="231"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2641" y="226"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2766" y="229"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2773" y="3"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2639" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2506" y="6"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2373" y="19"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2240" y="41"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2109" y="72"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1979" y="110"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1851" y="157"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1725" y="211"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1601" y="273"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1480" y="343"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1361" y="420"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1247" y="505"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1135" y="596"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1028" y="695"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="924" y="800"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="825" y="911"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="731" y="1028"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="641" y="1151"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="557" y="1280"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="478" y="1413"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="404" y="1551"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="336" y="1694"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="274" y="1841"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="218" y="1991"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="168" y="2145"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="125" y="2301"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="88" y="2460"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="57" y="2622"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="33" y="2785"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="15" y="2949"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="4" y="3114"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="3280"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="3" y="3445"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="12" y="3610"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="28" y="3775"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="50" y="3938"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="79" y="4100"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="115" y="4260"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="157" y="4417"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="205" y="4571"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="260" y="4723"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="321" y="4870"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="387" y="5014"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="459" y="5153"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="537" y="5288"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="620" y="5418"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="708" y="5542"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="802" y="5661"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="899" y="5773"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1002" y="5880"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1108" y="5980"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1219" y="6073"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1333" y="6160"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1450" y="6239"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1571" y="6310"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1694" y="6374"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1819" y="6431"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1947" y="6479"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2077" y="6519"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2208" y="6552"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2340" y="6576"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2473" y="6592"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2606" y="6599"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2740" y="6599"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2760" y="7424"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="3494" y="6458"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2715" y="5548"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2735" y="6373"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>92880</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>81000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4449600" y="2154600"/>
+          <a:ext cx="1298880" cy="1405440"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="3223" h="3538">
+              <a:moveTo>
+                <a:pt x="2403" y="2753"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="2400" y="2622"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2390" y="2492"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2375" y="2363"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2353" y="2234"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2326" y="2107"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2292" y="1982"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2252" y="1859"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2207" y="1737"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2156" y="1619"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2100" y="1504"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2038" y="1391"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1971" y="1283"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1899" y="1178"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1822" y="1077"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1740" y="980"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1654" y="889"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1563" y="802"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1469" y="720"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1371" y="643"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1269" y="572"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1165" y="506"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1057" y="446"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="946" y="392"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="833" y="345"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="718" y="303"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="602" y="268"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="483" y="239"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="364" y="217"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="243" y="201"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="122" y="192"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1" y="190"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="130" y="3"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="260" y="12"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="390" y="29"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="518" y="53"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="645" y="84"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="771" y="121"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="894" y="166"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1016" y="217"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1134" y="275"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1250" y="339"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1363" y="409"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1472" y="486"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1578" y="568"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1679" y="656"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1776" y="750"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1869" y="848"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1956" y="952"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2039" y="1060"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2117" y="1173"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2189" y="1290"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2255" y="1410"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2316" y="1534"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2371" y="1662"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2420" y="1792"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2462" y="1924"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2498" y="2059"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2528" y="2195"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2552" y="2333"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2568" y="2472"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2578" y="2612"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2582" y="2752"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="3222" y="2751"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2494" y="3537"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1763" y="2754"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2403" y="2753"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="3.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="3.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="8" style="0" width="3.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="4.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="4.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="8" style="0" width="4.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="4.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="4.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="4.44"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="4" customFormat="true" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="n">
+      <c r="B1" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="n">
+      <c r="C1" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="D1" s="2" t="n">
+      <c r="D1" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="E1" s="2" t="n">
+      <c r="E1" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="n">
+      <c r="F1" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="n">
+      <c r="G1" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="n">
+      <c r="H1" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="n">
+      <c r="I1" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="J1" s="2" t="n">
+      <c r="J1" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="K1" s="2" t="n">
+      <c r="K1" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="L1" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="M1" s="2" t="n">
+      <c r="L1" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="M1" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="n">
+      <c r="N1" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="O1" s="2" t="n">
+      <c r="O1" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="P1" s="2" t="n">
+      <c r="P1" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="Q1" s="2" t="n">
+      <c r="Q1" s="3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="true" ht="11.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="7" customFormat="true" ht="11.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="J2" s="3" t="n">
+      <c r="J2" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="K2" s="3" t="n">
+      <c r="K2" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="L2" s="3" t="n">
+      <c r="L2" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="M2" s="3" t="n">
+      <c r="M2" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="N2" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="O2" s="3" t="n">
+      <c r="N2" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="O2" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="P2" s="3" t="n">
+      <c r="P2" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="Q2" s="3" t="n">
+      <c r="Q2" s="6" t="n">
         <v>15</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="K10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="15" t="n">
+        <v>9</v>
+      </c>
+      <c r="F13" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="16" t="n">
+        <v>9</v>
+      </c>
+      <c r="I13" s="16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="15" t="n">
+        <v>11</v>
+      </c>
+      <c r="F14" s="15" t="n">
+        <v>12</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="16" t="n">
+        <v>11</v>
+      </c>
+      <c r="I14" s="16" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="15" t="n">
+        <v>13</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="16" t="n">
+        <v>13</v>
+      </c>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="15" t="n">
+        <v>17</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="16" t="n">
+        <v>17</v>
+      </c>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="15" t="n">
+        <v>22</v>
+      </c>
+      <c r="F19" s="15" t="n">
+        <v>21</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="17" t="n">
+        <v>21</v>
+      </c>
+      <c r="I19" s="17" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="15" t="n">
+        <v>23</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="18" t="n">
+        <v>23</v>
+      </c>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" customFormat="false" ht="10.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F23" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G23" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="H23" s="19" t="n">
+        <v>9</v>
+      </c>
+      <c r="I23" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J23" s="19" t="n">
+        <v>11</v>
+      </c>
+      <c r="K23" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="L23" s="19" t="n">
+        <v>13</v>
+      </c>
+      <c r="M23" s="19" t="n">
+        <v>17</v>
+      </c>
+      <c r="N23" s="19" t="n">
+        <v>20</v>
+      </c>
+      <c r="O23" s="19" t="n">
+        <v>21</v>
+      </c>
+      <c r="P23" s="19" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q23" s="19" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="11.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="L24" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="M24" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="N24" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="O24" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="P24" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q24" s="6" t="n">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="K5:P5"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="K9:P9"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="K11:P11"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>